--- a/xlsx/土耳其_intext.xlsx
+++ b/xlsx/土耳其_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1569">
   <si>
     <t>土耳其</t>
   </si>
@@ -29,7 +29,7 @@
     <t>土耳其語</t>
   </si>
   <si>
-    <t>政策_政策_美國_土耳其</t>
+    <t>体育运动_体育运动_宦官_土耳其</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E5%9B%BD%E6%97%97</t>
@@ -3122,646 +3122,682 @@
     <t>英国</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>荷兰王国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>卢森堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>北欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>芬兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
+  </si>
+  <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
+  </si>
+  <si>
+    <t>列支敦斯登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>东欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>拉脫維亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>斯洛維尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>克羅埃西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特內哥羅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
+  </si>
+  <si>
+    <t>科索沃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>馬其頓共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
+  </si>
+  <si>
+    <t>馬爾他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>南欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>義大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>聖座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
+  </si>
+  <si>
+    <t>安道尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>根西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>曼島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>澤西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>揚馬延島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>法罗群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
+  </si>
+  <si>
+    <t>馬爾他騎士團</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>阿爾巴尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%B1%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>拉脱维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E5%A3%AB%E7%99%BB</t>
+  </si>
+  <si>
+    <t>列支敦士登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>马其顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
+  </si>
+  <si>
+    <t>马耳他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>斯洛文尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A1%BF%E6%B6%85%E8%8C%A8%E5%85%8B%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>顿涅茨克人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E7%94%98%E6%96%AF%E5%85%8B%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>卢甘斯克人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%B6%85%E6%96%AF%E7%89%B9%E6%B2%B3%E6%B2%BF%E5%B2%B8</t>
+  </si>
+  <si>
+    <t>德涅斯特河沿岸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%B0</t>
+  </si>
+  <si>
+    <t>奥兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E9%A9%AC%E5%BB%B6</t>
+  </si>
+  <si>
+    <t>扬马延</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>根西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BD%97%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>加泰罗尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>主權</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>欧盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
+  </si>
+  <si>
+    <t>梵蒂冈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>圣座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96%E9%AA%91%E5%A3%AB%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>马耳他骑士团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>大西洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>巴利阿里海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴利阿里群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>利古里亞海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>科西嘉岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E4%B8%81%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>撒丁岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8B%92%E5%B0%BC%E5%AE%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>第勒尼安海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>西西里岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BE%97%E9%87%8C%E4%BA%9A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>亚得里亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%B1%B1%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>黑山共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>爱奥尼亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E8%BE%BE%E5%B0%BC%E5%B0%94%E6%B5%B7%E5%B3%A1</t>
+  </si>
+  <si>
+    <t>达达尼尔海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%85%8B%E6%8B%89%E6%B3%BD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>基克拉泽斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>克里特岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>突尼西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>北賽普勒斯土耳其共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8</t>
+  </si>
+  <si>
+    <t>约旦河西岸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E5%9C%B0%E5%B8%A6</t>
+  </si>
+  <si>
+    <t>加沙地带</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>西奈半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
+  </si>
+  <si>
+    <t>摩洛哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B2%83%E5%85%B0%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>阿尔沃兰海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80%E6%B5%B7%E5%B3%BD</t>
+  </si>
+  <si>
+    <t>直布羅陀海峽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>巴勒斯坦國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9F%9F</t>
+  </si>
+  <si>
+    <t>海域</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
+  </si>
+  <si>
+    <t>巴黎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
+  </si>
+  <si>
+    <t>柏林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>阿姆斯特丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
+  </si>
+  <si>
+    <t>布鲁塞尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
+  </si>
+  <si>
+    <t>盧森堡市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>伯尔尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>维也纳</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>爱尔兰共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>荷兰王国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>北欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
-  </si>
-  <si>
-    <t>列支敦斯登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>东欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>斯洛維尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>克羅埃西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
-  </si>
-  <si>
-    <t>科索沃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>馬其頓共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
-  </si>
-  <si>
-    <t>馬爾他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>南欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>義大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>聖座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>根西岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>曼島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>澤西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>揚馬延島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>斯瓦尔巴群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
-  </si>
-  <si>
-    <t>馬爾他騎士團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>阿爾巴尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%B1%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E5%A3%AB%E7%99%BB</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>马其顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A1%BF%E6%B6%85%E8%8C%A8%E5%85%8B%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>顿涅茨克人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E7%94%98%E6%96%AF%E5%85%8B%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>卢甘斯克人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%B6%85%E6%96%AF%E7%89%B9%E6%B2%B3%E6%B2%BF%E5%B2%B8</t>
-  </si>
-  <si>
-    <t>德涅斯特河沿岸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%B0</t>
-  </si>
-  <si>
-    <t>奥兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E9%A9%AC%E5%BB%B6</t>
-  </si>
-  <si>
-    <t>扬马延</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>根西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>斯瓦尔巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BD%97%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>加泰罗尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>主權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>欧盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
-  </si>
-  <si>
-    <t>梵蒂冈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>圣座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96%E9%AA%91%E5%A3%AB%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>马耳他骑士团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>大西洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>巴利阿里海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E9%98%BF%E9%87%8C%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>巴利阿里群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>利古里亞海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>科西嘉岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E4%B8%81%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>撒丁岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8B%92%E5%B0%BC%E5%AE%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>第勒尼安海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>西西里岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BE%97%E9%87%8C%E4%BA%9A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>亚得里亚海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%B1%B1%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>黑山共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>爱奥尼亚海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E8%BE%BE%E5%B0%BC%E5%B0%94%E6%B5%B7%E5%B3%A1</t>
-  </si>
-  <si>
-    <t>达达尼尔海峡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%85%8B%E6%8B%89%E6%B3%BD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>基克拉泽斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>克里特岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>突尼西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>北賽普勒斯土耳其共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8</t>
-  </si>
-  <si>
-    <t>约旦河西岸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B2%99%E5%9C%B0%E5%B8%A6</t>
-  </si>
-  <si>
-    <t>加沙地带</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%8D%8A%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>西奈半岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B2%83%E5%85%B0%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>阿尔沃兰海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80%E6%B5%B7%E5%B3%BD</t>
-  </si>
-  <si>
-    <t>直布羅陀海峽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>巴勒斯坦國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9F%9F</t>
-  </si>
-  <si>
-    <t>海域</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
-  </si>
-  <si>
-    <t>巴黎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
-  </si>
-  <si>
-    <t>柏林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>阿姆斯特丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
-  </si>
-  <si>
-    <t>布鲁塞尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
-  </si>
-  <si>
-    <t>盧森堡市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>伯尔尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97</t>
@@ -5034,7 +5070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I890"/>
+  <dimension ref="A1:I897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6335,7 +6371,7 @@
         <v>90</v>
       </c>
       <c r="G45" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -6364,7 +6400,7 @@
         <v>92</v>
       </c>
       <c r="G46" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -11613,7 +11649,7 @@
         <v>438</v>
       </c>
       <c r="G227" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -14571,7 +14607,7 @@
         <v>614</v>
       </c>
       <c r="G329" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -21647,7 +21683,7 @@
         <v>90</v>
       </c>
       <c r="G573" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H573" t="s">
         <v>4</v>
@@ -21763,7 +21799,7 @@
         <v>1036</v>
       </c>
       <c r="G577" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H577" t="s">
         <v>4</v>
@@ -21792,7 +21828,7 @@
         <v>1038</v>
       </c>
       <c r="G578" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H578" t="s">
         <v>4</v>
@@ -21821,7 +21857,7 @@
         <v>1040</v>
       </c>
       <c r="G579" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H579" t="s">
         <v>4</v>
@@ -21850,7 +21886,7 @@
         <v>1042</v>
       </c>
       <c r="G580" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H580" t="s">
         <v>4</v>
@@ -21879,7 +21915,7 @@
         <v>1044</v>
       </c>
       <c r="G581" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H581" t="s">
         <v>4</v>
@@ -21908,7 +21944,7 @@
         <v>1046</v>
       </c>
       <c r="G582" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H582" t="s">
         <v>4</v>
@@ -21966,7 +22002,7 @@
         <v>1050</v>
       </c>
       <c r="G584" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H584" t="s">
         <v>4</v>
@@ -21995,7 +22031,7 @@
         <v>1052</v>
       </c>
       <c r="G585" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H585" t="s">
         <v>4</v>
@@ -22053,7 +22089,7 @@
         <v>1056</v>
       </c>
       <c r="G587" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H587" t="s">
         <v>4</v>
@@ -22082,7 +22118,7 @@
         <v>1058</v>
       </c>
       <c r="G588" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H588" t="s">
         <v>4</v>
@@ -22140,7 +22176,7 @@
         <v>1062</v>
       </c>
       <c r="G590" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H590" t="s">
         <v>4</v>
@@ -22198,7 +22234,7 @@
         <v>1066</v>
       </c>
       <c r="G592" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H592" t="s">
         <v>4</v>
@@ -22227,7 +22263,7 @@
         <v>1068</v>
       </c>
       <c r="G593" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H593" t="s">
         <v>4</v>
@@ -22256,7 +22292,7 @@
         <v>1070</v>
       </c>
       <c r="G594" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H594" t="s">
         <v>4</v>
@@ -22285,7 +22321,7 @@
         <v>1072</v>
       </c>
       <c r="G595" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H595" t="s">
         <v>4</v>
@@ -22314,7 +22350,7 @@
         <v>1074</v>
       </c>
       <c r="G596" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H596" t="s">
         <v>4</v>
@@ -22372,7 +22408,7 @@
         <v>1078</v>
       </c>
       <c r="G598" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H598" t="s">
         <v>4</v>
@@ -22401,7 +22437,7 @@
         <v>1080</v>
       </c>
       <c r="G599" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H599" t="s">
         <v>4</v>
@@ -22430,7 +22466,7 @@
         <v>1082</v>
       </c>
       <c r="G600" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H600" t="s">
         <v>4</v>
@@ -22459,7 +22495,7 @@
         <v>1084</v>
       </c>
       <c r="G601" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H601" t="s">
         <v>4</v>
@@ -22488,7 +22524,7 @@
         <v>1086</v>
       </c>
       <c r="G602" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H602" t="s">
         <v>4</v>
@@ -22517,7 +22553,7 @@
         <v>1088</v>
       </c>
       <c r="G603" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H603" t="s">
         <v>4</v>
@@ -22546,7 +22582,7 @@
         <v>1090</v>
       </c>
       <c r="G604" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H604" t="s">
         <v>4</v>
@@ -22575,7 +22611,7 @@
         <v>1092</v>
       </c>
       <c r="G605" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H605" t="s">
         <v>4</v>
@@ -22604,7 +22640,7 @@
         <v>1094</v>
       </c>
       <c r="G606" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H606" t="s">
         <v>4</v>
@@ -22627,13 +22663,13 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1095</v>
+        <v>99</v>
       </c>
       <c r="F607" t="s">
-        <v>1096</v>
+        <v>100</v>
       </c>
       <c r="G607" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H607" t="s">
         <v>4</v>
@@ -22656,13 +22692,13 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F608" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G608" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H608" t="s">
         <v>4</v>
@@ -22685,13 +22721,13 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F609" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="G609" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H609" t="s">
         <v>4</v>
@@ -22714,13 +22750,13 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F610" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G610" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H610" t="s">
         <v>4</v>
@@ -22743,13 +22779,13 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F611" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="G611" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H611" t="s">
         <v>4</v>
@@ -22772,13 +22808,13 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F612" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="G612" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H612" t="s">
         <v>4</v>
@@ -22801,10 +22837,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F613" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="G613" t="n">
         <v>3</v>
@@ -22830,13 +22866,13 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F614" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G614" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H614" t="s">
         <v>4</v>
@@ -22859,13 +22895,13 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F615" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G615" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H615" t="s">
         <v>4</v>
@@ -22888,10 +22924,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F616" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G616" t="n">
         <v>3</v>
@@ -22917,13 +22953,13 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F617" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="G617" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H617" t="s">
         <v>4</v>
@@ -22946,13 +22982,13 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F618" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="G618" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H618" t="s">
         <v>4</v>
@@ -22975,13 +23011,13 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F619" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="G619" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H619" t="s">
         <v>4</v>
@@ -23004,13 +23040,13 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F620" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G620" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H620" t="s">
         <v>4</v>
@@ -23033,13 +23069,13 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F621" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="G621" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H621" t="s">
         <v>4</v>
@@ -23062,13 +23098,13 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F622" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G622" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H622" t="s">
         <v>4</v>
@@ -23091,13 +23127,13 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F623" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="G623" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H623" t="s">
         <v>4</v>
@@ -23120,13 +23156,13 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="F624" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="G624" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H624" t="s">
         <v>4</v>
@@ -23149,10 +23185,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F625" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -23178,10 +23214,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F626" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G626" t="n">
         <v>2</v>
@@ -23207,10 +23243,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F627" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -23236,13 +23272,13 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="F628" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="G628" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H628" t="s">
         <v>4</v>
@@ -23265,13 +23301,13 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F629" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G629" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H629" t="s">
         <v>4</v>
@@ -23294,13 +23330,13 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="F630" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="G630" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H630" t="s">
         <v>4</v>
@@ -23323,13 +23359,13 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F631" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="G631" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H631" t="s">
         <v>4</v>
@@ -23352,13 +23388,13 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="F632" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="G632" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H632" t="s">
         <v>4</v>
@@ -23381,10 +23417,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="F633" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -23410,10 +23446,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F634" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -23439,13 +23475,13 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1151</v>
+        <v>383</v>
       </c>
       <c r="F635" t="s">
-        <v>1152</v>
+        <v>384</v>
       </c>
       <c r="G635" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H635" t="s">
         <v>4</v>
@@ -23468,10 +23504,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F636" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G636" t="n">
         <v>4</v>
@@ -23497,13 +23533,13 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="F637" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="G637" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H637" t="s">
         <v>4</v>
@@ -23526,13 +23562,13 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>973</v>
+        <v>1153</v>
       </c>
       <c r="F638" t="s">
-        <v>974</v>
+        <v>1154</v>
       </c>
       <c r="G638" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H638" t="s">
         <v>4</v>
@@ -23555,13 +23591,13 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F639" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="G639" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H639" t="s">
         <v>4</v>
@@ -23584,10 +23620,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F640" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -23613,10 +23649,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F641" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -23642,10 +23678,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F642" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -23671,13 +23707,13 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1121</v>
+        <v>1163</v>
       </c>
       <c r="F643" t="s">
-        <v>1122</v>
+        <v>1164</v>
       </c>
       <c r="G643" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H643" t="s">
         <v>4</v>
@@ -23706,7 +23742,7 @@
         <v>1166</v>
       </c>
       <c r="G644" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H644" t="s">
         <v>4</v>
@@ -23729,13 +23765,13 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1167</v>
+        <v>973</v>
       </c>
       <c r="F645" t="s">
-        <v>1168</v>
+        <v>974</v>
       </c>
       <c r="G645" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H645" t="s">
         <v>4</v>
@@ -23758,10 +23794,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1127</v>
+        <v>1167</v>
       </c>
       <c r="F646" t="s">
-        <v>1128</v>
+        <v>1168</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -23793,7 +23829,7 @@
         <v>1170</v>
       </c>
       <c r="G647" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H647" t="s">
         <v>4</v>
@@ -23874,10 +23910,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1175</v>
+        <v>1131</v>
       </c>
       <c r="F650" t="s">
-        <v>1176</v>
+        <v>1132</v>
       </c>
       <c r="G650" t="n">
         <v>2</v>
@@ -23903,13 +23939,13 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="F651" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G651" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H651" t="s">
         <v>4</v>
@@ -23932,13 +23968,13 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F652" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G652" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H652" t="s">
         <v>4</v>
@@ -23961,10 +23997,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1181</v>
+        <v>1137</v>
       </c>
       <c r="F653" t="s">
-        <v>1182</v>
+        <v>1138</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -23990,13 +24026,13 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="F654" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="G654" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H654" t="s">
         <v>4</v>
@@ -24019,13 +24055,13 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1153</v>
+        <v>1181</v>
       </c>
       <c r="F655" t="s">
-        <v>1154</v>
+        <v>1182</v>
       </c>
       <c r="G655" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H655" t="s">
         <v>4</v>
@@ -24048,13 +24084,13 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="F656" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="G656" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H656" t="s">
         <v>4</v>
@@ -24077,13 +24113,13 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="F657" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="G657" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H657" t="s">
         <v>4</v>
@@ -24106,10 +24142,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1031</v>
+        <v>1187</v>
       </c>
       <c r="F658" t="s">
-        <v>1032</v>
+        <v>1188</v>
       </c>
       <c r="G658" t="n">
         <v>2</v>
@@ -24199,7 +24235,7 @@
         <v>1194</v>
       </c>
       <c r="G661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H661" t="s">
         <v>4</v>
@@ -24222,13 +24258,13 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1195</v>
+        <v>1163</v>
       </c>
       <c r="F662" t="s">
-        <v>1196</v>
+        <v>1164</v>
       </c>
       <c r="G662" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H662" t="s">
         <v>4</v>
@@ -24251,10 +24287,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F663" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -24280,13 +24316,13 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F664" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="G664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H664" t="s">
         <v>4</v>
@@ -24309,10 +24345,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1095</v>
+        <v>1031</v>
       </c>
       <c r="F665" t="s">
-        <v>1096</v>
+        <v>1032</v>
       </c>
       <c r="G665" t="n">
         <v>2</v>
@@ -24338,13 +24374,13 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F666" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="G666" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H666" t="s">
         <v>4</v>
@@ -24367,13 +24403,13 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1091</v>
+        <v>1201</v>
       </c>
       <c r="F667" t="s">
-        <v>1092</v>
+        <v>1202</v>
       </c>
       <c r="G667" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H667" t="s">
         <v>4</v>
@@ -24396,13 +24432,13 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1143</v>
+        <v>1203</v>
       </c>
       <c r="F668" t="s">
-        <v>1144</v>
+        <v>1204</v>
       </c>
       <c r="G668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H668" t="s">
         <v>4</v>
@@ -24425,13 +24461,13 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1155</v>
+        <v>1205</v>
       </c>
       <c r="F669" t="s">
-        <v>1156</v>
+        <v>1206</v>
       </c>
       <c r="G669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H669" t="s">
         <v>4</v>
@@ -24454,10 +24490,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="F670" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="G670" t="n">
         <v>1</v>
@@ -24483,13 +24519,13 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>105</v>
+        <v>1209</v>
       </c>
       <c r="F671" t="s">
-        <v>106</v>
+        <v>1210</v>
       </c>
       <c r="G671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H671" t="s">
         <v>4</v>
@@ -24512,13 +24548,13 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>111</v>
+        <v>1103</v>
       </c>
       <c r="F672" t="s">
-        <v>112</v>
+        <v>1104</v>
       </c>
       <c r="G672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H672" t="s">
         <v>4</v>
@@ -24541,10 +24577,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
       <c r="F673" t="s">
-        <v>1206</v>
+        <v>1212</v>
       </c>
       <c r="G673" t="n">
         <v>2</v>
@@ -24570,10 +24606,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>627</v>
+        <v>1099</v>
       </c>
       <c r="F674" t="s">
-        <v>628</v>
+        <v>1100</v>
       </c>
       <c r="G674" t="n">
         <v>2</v>
@@ -24599,10 +24635,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>625</v>
+        <v>1153</v>
       </c>
       <c r="F675" t="s">
-        <v>626</v>
+        <v>1154</v>
       </c>
       <c r="G675" t="n">
         <v>2</v>
@@ -24628,13 +24664,13 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>103</v>
+        <v>1165</v>
       </c>
       <c r="F676" t="s">
-        <v>104</v>
+        <v>1166</v>
       </c>
       <c r="G676" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H676" t="s">
         <v>4</v>
@@ -24657,10 +24693,10 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="F677" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="G677" t="n">
         <v>1</v>
@@ -24686,10 +24722,10 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1209</v>
+        <v>105</v>
       </c>
       <c r="F678" t="s">
-        <v>1210</v>
+        <v>106</v>
       </c>
       <c r="G678" t="n">
         <v>1</v>
@@ -24715,10 +24751,10 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1211</v>
+        <v>111</v>
       </c>
       <c r="F679" t="s">
-        <v>1212</v>
+        <v>112</v>
       </c>
       <c r="G679" t="n">
         <v>0</v>
@@ -24744,10 +24780,10 @@
         <v>679</v>
       </c>
       <c r="E680" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="F680" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="G680" t="n">
         <v>2</v>
@@ -24773,10 +24809,10 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>963</v>
+        <v>627</v>
       </c>
       <c r="F681" t="s">
-        <v>964</v>
+        <v>628</v>
       </c>
       <c r="G681" t="n">
         <v>2</v>
@@ -24802,10 +24838,10 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>963</v>
+        <v>625</v>
       </c>
       <c r="F682" t="s">
-        <v>964</v>
+        <v>626</v>
       </c>
       <c r="G682" t="n">
         <v>2</v>
@@ -24831,13 +24867,13 @@
         <v>682</v>
       </c>
       <c r="E683" t="s">
-        <v>951</v>
+        <v>103</v>
       </c>
       <c r="F683" t="s">
-        <v>952</v>
+        <v>104</v>
       </c>
       <c r="G683" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H683" t="s">
         <v>4</v>
@@ -24860,13 +24896,13 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
-        <v>547</v>
+        <v>1217</v>
       </c>
       <c r="F684" t="s">
-        <v>548</v>
+        <v>1218</v>
       </c>
       <c r="G684" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H684" t="s">
         <v>4</v>
@@ -24889,13 +24925,13 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="F685" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="G685" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H685" t="s">
         <v>4</v>
@@ -24918,13 +24954,13 @@
         <v>685</v>
       </c>
       <c r="E686" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="F686" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="G686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H686" t="s">
         <v>4</v>
@@ -24947,13 +24983,13 @@
         <v>686</v>
       </c>
       <c r="E687" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="F687" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="G687" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H687" t="s">
         <v>4</v>
@@ -24976,10 +25012,10 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>1221</v>
+        <v>963</v>
       </c>
       <c r="F688" t="s">
-        <v>1222</v>
+        <v>964</v>
       </c>
       <c r="G688" t="n">
         <v>2</v>
@@ -25005,13 +25041,13 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1223</v>
+        <v>963</v>
       </c>
       <c r="F689" t="s">
-        <v>1224</v>
+        <v>964</v>
       </c>
       <c r="G689" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H689" t="s">
         <v>4</v>
@@ -25034,13 +25070,13 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1225</v>
+        <v>951</v>
       </c>
       <c r="F690" t="s">
-        <v>1226</v>
+        <v>952</v>
       </c>
       <c r="G690" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H690" t="s">
         <v>4</v>
@@ -25063,13 +25099,13 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1227</v>
+        <v>547</v>
       </c>
       <c r="F691" t="s">
-        <v>1228</v>
+        <v>548</v>
       </c>
       <c r="G691" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H691" t="s">
         <v>4</v>
@@ -25092,10 +25128,10 @@
         <v>691</v>
       </c>
       <c r="E692" t="s">
-        <v>1121</v>
+        <v>1225</v>
       </c>
       <c r="F692" t="s">
-        <v>1122</v>
+        <v>1226</v>
       </c>
       <c r="G692" t="n">
         <v>2</v>
@@ -25121,13 +25157,13 @@
         <v>692</v>
       </c>
       <c r="E693" t="s">
-        <v>1121</v>
+        <v>1227</v>
       </c>
       <c r="F693" t="s">
-        <v>1122</v>
+        <v>1228</v>
       </c>
       <c r="G693" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H693" t="s">
         <v>4</v>
@@ -25150,10 +25186,10 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>963</v>
+        <v>1229</v>
       </c>
       <c r="F694" t="s">
-        <v>964</v>
+        <v>1230</v>
       </c>
       <c r="G694" t="n">
         <v>1</v>
@@ -25179,13 +25215,13 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>963</v>
+        <v>1231</v>
       </c>
       <c r="F695" t="s">
-        <v>964</v>
+        <v>1232</v>
       </c>
       <c r="G695" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H695" t="s">
         <v>4</v>
@@ -25208,13 +25244,13 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>815</v>
+        <v>1233</v>
       </c>
       <c r="F696" t="s">
-        <v>816</v>
+        <v>1234</v>
       </c>
       <c r="G696" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H696" t="s">
         <v>4</v>
@@ -25237,10 +25273,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>951</v>
+        <v>1235</v>
       </c>
       <c r="F697" t="s">
-        <v>952</v>
+        <v>1236</v>
       </c>
       <c r="G697" t="n">
         <v>1</v>
@@ -25266,10 +25302,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>547</v>
+        <v>1237</v>
       </c>
       <c r="F698" t="s">
-        <v>548</v>
+        <v>1238</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
@@ -25295,13 +25331,13 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1229</v>
+        <v>1131</v>
       </c>
       <c r="F699" t="s">
-        <v>1230</v>
+        <v>1132</v>
       </c>
       <c r="G699" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H699" t="s">
         <v>4</v>
@@ -25324,10 +25360,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1215</v>
+        <v>1131</v>
       </c>
       <c r="F700" t="s">
-        <v>1216</v>
+        <v>1132</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -25353,10 +25389,10 @@
         <v>700</v>
       </c>
       <c r="E701" t="s">
-        <v>1217</v>
+        <v>963</v>
       </c>
       <c r="F701" t="s">
-        <v>1218</v>
+        <v>964</v>
       </c>
       <c r="G701" t="n">
         <v>1</v>
@@ -25382,10 +25418,10 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>1095</v>
+        <v>963</v>
       </c>
       <c r="F702" t="s">
-        <v>1096</v>
+        <v>964</v>
       </c>
       <c r="G702" t="n">
         <v>1</v>
@@ -25411,10 +25447,10 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>1093</v>
+        <v>815</v>
       </c>
       <c r="F703" t="s">
-        <v>1094</v>
+        <v>816</v>
       </c>
       <c r="G703" t="n">
         <v>1</v>
@@ -25440,10 +25476,10 @@
         <v>703</v>
       </c>
       <c r="E704" t="s">
-        <v>1091</v>
+        <v>951</v>
       </c>
       <c r="F704" t="s">
-        <v>1092</v>
+        <v>952</v>
       </c>
       <c r="G704" t="n">
         <v>1</v>
@@ -25469,10 +25505,10 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1143</v>
+        <v>547</v>
       </c>
       <c r="F705" t="s">
-        <v>1144</v>
+        <v>548</v>
       </c>
       <c r="G705" t="n">
         <v>1</v>
@@ -25498,10 +25534,10 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>1155</v>
+        <v>1239</v>
       </c>
       <c r="F706" t="s">
-        <v>1156</v>
+        <v>1240</v>
       </c>
       <c r="G706" t="n">
         <v>1</v>
@@ -25527,10 +25563,10 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>1031</v>
+        <v>1225</v>
       </c>
       <c r="F707" t="s">
-        <v>1032</v>
+        <v>1226</v>
       </c>
       <c r="G707" t="n">
         <v>1</v>
@@ -25556,10 +25592,10 @@
         <v>707</v>
       </c>
       <c r="E708" t="s">
-        <v>1153</v>
+        <v>1227</v>
       </c>
       <c r="F708" t="s">
-        <v>1154</v>
+        <v>1228</v>
       </c>
       <c r="G708" t="n">
         <v>1</v>
@@ -25585,10 +25621,10 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1231</v>
+        <v>1103</v>
       </c>
       <c r="F709" t="s">
-        <v>1232</v>
+        <v>1104</v>
       </c>
       <c r="G709" t="n">
         <v>1</v>
@@ -25614,10 +25650,10 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>1205</v>
+        <v>1101</v>
       </c>
       <c r="F710" t="s">
-        <v>1206</v>
+        <v>1102</v>
       </c>
       <c r="G710" t="n">
         <v>1</v>
@@ -25643,10 +25679,10 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>627</v>
+        <v>1099</v>
       </c>
       <c r="F711" t="s">
-        <v>628</v>
+        <v>1100</v>
       </c>
       <c r="G711" t="n">
         <v>1</v>
@@ -25672,10 +25708,10 @@
         <v>711</v>
       </c>
       <c r="E712" t="s">
-        <v>625</v>
+        <v>1153</v>
       </c>
       <c r="F712" t="s">
-        <v>626</v>
+        <v>1154</v>
       </c>
       <c r="G712" t="n">
         <v>1</v>
@@ -25701,10 +25737,10 @@
         <v>712</v>
       </c>
       <c r="E713" t="s">
-        <v>1233</v>
+        <v>1165</v>
       </c>
       <c r="F713" t="s">
-        <v>1234</v>
+        <v>1166</v>
       </c>
       <c r="G713" t="n">
         <v>1</v>
@@ -25730,10 +25766,10 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>1235</v>
+        <v>1031</v>
       </c>
       <c r="F714" t="s">
-        <v>1236</v>
+        <v>1032</v>
       </c>
       <c r="G714" t="n">
         <v>1</v>
@@ -25759,13 +25795,13 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1237</v>
+        <v>1163</v>
       </c>
       <c r="F715" t="s">
-        <v>1238</v>
+        <v>1164</v>
       </c>
       <c r="G715" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H715" t="s">
         <v>4</v>
@@ -25788,13 +25824,13 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>1037</v>
+        <v>1241</v>
       </c>
       <c r="F716" t="s">
-        <v>1038</v>
+        <v>1242</v>
       </c>
       <c r="G716" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H716" t="s">
         <v>4</v>
@@ -25817,10 +25853,10 @@
         <v>716</v>
       </c>
       <c r="E717" t="s">
-        <v>1239</v>
+        <v>1215</v>
       </c>
       <c r="F717" t="s">
-        <v>1240</v>
+        <v>1216</v>
       </c>
       <c r="G717" t="n">
         <v>1</v>
@@ -25846,10 +25882,10 @@
         <v>717</v>
       </c>
       <c r="E718" t="s">
-        <v>1241</v>
+        <v>627</v>
       </c>
       <c r="F718" t="s">
-        <v>1242</v>
+        <v>628</v>
       </c>
       <c r="G718" t="n">
         <v>1</v>
@@ -25875,10 +25911,10 @@
         <v>718</v>
       </c>
       <c r="E719" t="s">
-        <v>1243</v>
+        <v>625</v>
       </c>
       <c r="F719" t="s">
-        <v>1244</v>
+        <v>626</v>
       </c>
       <c r="G719" t="n">
         <v>1</v>
@@ -25904,10 +25940,10 @@
         <v>719</v>
       </c>
       <c r="E720" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="F720" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="G720" t="n">
         <v>1</v>
@@ -25933,10 +25969,10 @@
         <v>720</v>
       </c>
       <c r="E721" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="F721" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="G721" t="n">
         <v>1</v>
@@ -25962,13 +25998,13 @@
         <v>721</v>
       </c>
       <c r="E722" t="s">
-        <v>1035</v>
+        <v>1247</v>
       </c>
       <c r="F722" t="s">
-        <v>1036</v>
+        <v>1248</v>
       </c>
       <c r="G722" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H722" t="s">
         <v>4</v>
@@ -25991,13 +26027,13 @@
         <v>722</v>
       </c>
       <c r="E723" t="s">
-        <v>1249</v>
+        <v>1045</v>
       </c>
       <c r="F723" t="s">
-        <v>1250</v>
+        <v>1046</v>
       </c>
       <c r="G723" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H723" t="s">
         <v>4</v>
@@ -26020,10 +26056,10 @@
         <v>723</v>
       </c>
       <c r="E724" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="F724" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="G724" t="n">
         <v>1</v>
@@ -26049,10 +26085,10 @@
         <v>724</v>
       </c>
       <c r="E725" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F725" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G725" t="n">
         <v>1</v>
@@ -26078,10 +26114,10 @@
         <v>725</v>
       </c>
       <c r="E726" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="F726" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="G726" t="n">
         <v>1</v>
@@ -26107,10 +26143,10 @@
         <v>726</v>
       </c>
       <c r="E727" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="F727" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="G727" t="n">
         <v>1</v>
@@ -26136,10 +26172,10 @@
         <v>727</v>
       </c>
       <c r="E728" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F728" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="G728" t="n">
         <v>1</v>
@@ -26165,10 +26201,10 @@
         <v>728</v>
       </c>
       <c r="E729" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="F729" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="G729" t="n">
         <v>1</v>
@@ -26194,10 +26230,10 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="F730" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="G730" t="n">
         <v>1</v>
@@ -26223,10 +26259,10 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="F731" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="G731" t="n">
         <v>1</v>
@@ -26252,13 +26288,13 @@
         <v>731</v>
       </c>
       <c r="E732" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="F732" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="G732" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H732" t="s">
         <v>4</v>
@@ -26281,10 +26317,10 @@
         <v>732</v>
       </c>
       <c r="E733" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="F733" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G733" t="n">
         <v>1</v>
@@ -26310,10 +26346,10 @@
         <v>733</v>
       </c>
       <c r="E734" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="F734" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G734" t="n">
         <v>1</v>
@@ -26339,10 +26375,10 @@
         <v>734</v>
       </c>
       <c r="E735" t="s">
-        <v>1177</v>
+        <v>1271</v>
       </c>
       <c r="F735" t="s">
-        <v>1178</v>
+        <v>1272</v>
       </c>
       <c r="G735" t="n">
         <v>1</v>
@@ -26461,7 +26497,7 @@
         <v>1280</v>
       </c>
       <c r="G739" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H739" t="s">
         <v>4</v>
@@ -26542,10 +26578,10 @@
         <v>741</v>
       </c>
       <c r="E742" t="s">
-        <v>1285</v>
+        <v>1187</v>
       </c>
       <c r="F742" t="s">
-        <v>1286</v>
+        <v>1188</v>
       </c>
       <c r="G742" t="n">
         <v>1</v>
@@ -26571,10 +26607,10 @@
         <v>742</v>
       </c>
       <c r="E743" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F743" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G743" t="n">
         <v>1</v>
@@ -26600,10 +26636,10 @@
         <v>743</v>
       </c>
       <c r="E744" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F744" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="G744" t="n">
         <v>1</v>
@@ -26629,10 +26665,10 @@
         <v>744</v>
       </c>
       <c r="E745" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F745" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="G745" t="n">
         <v>1</v>
@@ -26658,10 +26694,10 @@
         <v>745</v>
       </c>
       <c r="E746" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F746" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="G746" t="n">
         <v>1</v>
@@ -26687,10 +26723,10 @@
         <v>746</v>
       </c>
       <c r="E747" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="F747" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="G747" t="n">
         <v>1</v>
@@ -26716,10 +26752,10 @@
         <v>747</v>
       </c>
       <c r="E748" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F748" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="G748" t="n">
         <v>1</v>
@@ -26745,10 +26781,10 @@
         <v>748</v>
       </c>
       <c r="E749" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="F749" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="G749" t="n">
         <v>1</v>
@@ -26774,10 +26810,10 @@
         <v>749</v>
       </c>
       <c r="E750" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F750" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="G750" t="n">
         <v>1</v>
@@ -26803,10 +26839,10 @@
         <v>750</v>
       </c>
       <c r="E751" t="s">
-        <v>1161</v>
+        <v>1301</v>
       </c>
       <c r="F751" t="s">
-        <v>1162</v>
+        <v>1302</v>
       </c>
       <c r="G751" t="n">
         <v>1</v>
@@ -27006,10 +27042,10 @@
         <v>757</v>
       </c>
       <c r="E758" t="s">
-        <v>1315</v>
+        <v>1171</v>
       </c>
       <c r="F758" t="s">
-        <v>1316</v>
+        <v>1172</v>
       </c>
       <c r="G758" t="n">
         <v>1</v>
@@ -27035,10 +27071,10 @@
         <v>758</v>
       </c>
       <c r="E759" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="F759" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="G759" t="n">
         <v>1</v>
@@ -27064,10 +27100,10 @@
         <v>759</v>
       </c>
       <c r="E760" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="F760" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="G760" t="n">
         <v>1</v>
@@ -27093,10 +27129,10 @@
         <v>760</v>
       </c>
       <c r="E761" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F761" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="G761" t="n">
         <v>1</v>
@@ -27122,10 +27158,10 @@
         <v>761</v>
       </c>
       <c r="E762" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="F762" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="G762" t="n">
         <v>1</v>
@@ -27151,10 +27187,10 @@
         <v>762</v>
       </c>
       <c r="E763" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="F763" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="G763" t="n">
         <v>1</v>
@@ -27180,10 +27216,10 @@
         <v>763</v>
       </c>
       <c r="E764" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="F764" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G764" t="n">
         <v>1</v>
@@ -27209,13 +27245,13 @@
         <v>764</v>
       </c>
       <c r="E765" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="F765" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="G765" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H765" t="s">
         <v>4</v>
@@ -27238,13 +27274,13 @@
         <v>765</v>
       </c>
       <c r="E766" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F766" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G766" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H766" t="s">
         <v>4</v>
@@ -27267,13 +27303,13 @@
         <v>766</v>
       </c>
       <c r="E767" t="s">
-        <v>865</v>
+        <v>1331</v>
       </c>
       <c r="F767" t="s">
-        <v>866</v>
+        <v>1332</v>
       </c>
       <c r="G767" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H767" t="s">
         <v>4</v>
@@ -27360,7 +27396,7 @@
         <v>1338</v>
       </c>
       <c r="G770" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H770" t="s">
         <v>4</v>
@@ -27418,7 +27454,7 @@
         <v>1342</v>
       </c>
       <c r="G772" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H772" t="s">
         <v>4</v>
@@ -27447,7 +27483,7 @@
         <v>1344</v>
       </c>
       <c r="G773" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H773" t="s">
         <v>4</v>
@@ -27470,13 +27506,13 @@
         <v>773</v>
       </c>
       <c r="E774" t="s">
-        <v>1345</v>
+        <v>865</v>
       </c>
       <c r="F774" t="s">
-        <v>1346</v>
+        <v>866</v>
       </c>
       <c r="G774" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H774" t="s">
         <v>4</v>
@@ -27499,10 +27535,10 @@
         <v>774</v>
       </c>
       <c r="E775" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="F775" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G775" t="n">
         <v>1</v>
@@ -27528,10 +27564,10 @@
         <v>775</v>
       </c>
       <c r="E776" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="F776" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G776" t="n">
         <v>1</v>
@@ -27557,13 +27593,13 @@
         <v>776</v>
       </c>
       <c r="E777" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="F777" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G777" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H777" t="s">
         <v>4</v>
@@ -27586,10 +27622,10 @@
         <v>777</v>
       </c>
       <c r="E778" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="F778" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G778" t="n">
         <v>1</v>
@@ -27615,10 +27651,10 @@
         <v>778</v>
       </c>
       <c r="E779" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="F779" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G779" t="n">
         <v>1</v>
@@ -27644,13 +27680,13 @@
         <v>779</v>
       </c>
       <c r="E780" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="F780" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G780" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H780" t="s">
         <v>4</v>
@@ -27673,10 +27709,10 @@
         <v>780</v>
       </c>
       <c r="E781" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F781" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="G781" t="n">
         <v>1</v>
@@ -27702,10 +27738,10 @@
         <v>781</v>
       </c>
       <c r="E782" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="F782" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G782" t="n">
         <v>1</v>
@@ -27731,10 +27767,10 @@
         <v>782</v>
       </c>
       <c r="E783" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="F783" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G783" t="n">
         <v>1</v>
@@ -27760,10 +27796,10 @@
         <v>783</v>
       </c>
       <c r="E784" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F784" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="G784" t="n">
         <v>1</v>
@@ -27789,10 +27825,10 @@
         <v>784</v>
       </c>
       <c r="E785" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F785" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G785" t="n">
         <v>1</v>
@@ -27818,10 +27854,10 @@
         <v>785</v>
       </c>
       <c r="E786" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="F786" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G786" t="n">
         <v>1</v>
@@ -27847,13 +27883,13 @@
         <v>786</v>
       </c>
       <c r="E787" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F787" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="G787" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H787" t="s">
         <v>4</v>
@@ -27876,10 +27912,10 @@
         <v>787</v>
       </c>
       <c r="E788" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F788" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G788" t="n">
         <v>1</v>
@@ -27905,13 +27941,13 @@
         <v>788</v>
       </c>
       <c r="E789" t="s">
-        <v>541</v>
+        <v>1373</v>
       </c>
       <c r="F789" t="s">
-        <v>542</v>
+        <v>1374</v>
       </c>
       <c r="G789" t="n">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="H789" t="s">
         <v>4</v>
@@ -28108,13 +28144,13 @@
         <v>795</v>
       </c>
       <c r="E796" t="s">
-        <v>1387</v>
+        <v>541</v>
       </c>
       <c r="F796" t="s">
-        <v>1388</v>
+        <v>542</v>
       </c>
       <c r="G796" t="n">
-        <v>1</v>
+        <v>228</v>
       </c>
       <c r="H796" t="s">
         <v>4</v>
@@ -28137,10 +28173,10 @@
         <v>796</v>
       </c>
       <c r="E797" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F797" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="G797" t="n">
         <v>1</v>
@@ -28166,10 +28202,10 @@
         <v>797</v>
       </c>
       <c r="E798" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F798" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="G798" t="n">
         <v>1</v>
@@ -28195,10 +28231,10 @@
         <v>798</v>
       </c>
       <c r="E799" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F799" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="G799" t="n">
         <v>1</v>
@@ -28224,10 +28260,10 @@
         <v>799</v>
       </c>
       <c r="E800" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="F800" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="G800" t="n">
         <v>1</v>
@@ -28253,10 +28289,10 @@
         <v>800</v>
       </c>
       <c r="E801" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="F801" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="G801" t="n">
         <v>1</v>
@@ -28282,10 +28318,10 @@
         <v>801</v>
       </c>
       <c r="E802" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="F802" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="G802" t="n">
         <v>1</v>
@@ -28311,10 +28347,10 @@
         <v>802</v>
       </c>
       <c r="E803" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="F803" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="G803" t="n">
         <v>1</v>
@@ -28340,10 +28376,10 @@
         <v>803</v>
       </c>
       <c r="E804" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="F804" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="G804" t="n">
         <v>1</v>
@@ -28369,13 +28405,13 @@
         <v>804</v>
       </c>
       <c r="E805" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="F805" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="G805" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H805" t="s">
         <v>4</v>
@@ -28398,10 +28434,10 @@
         <v>805</v>
       </c>
       <c r="E806" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="F806" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="G806" t="n">
         <v>1</v>
@@ -28427,13 +28463,13 @@
         <v>806</v>
       </c>
       <c r="E807" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="F807" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="G807" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H807" t="s">
         <v>4</v>
@@ -28456,13 +28492,13 @@
         <v>807</v>
       </c>
       <c r="E808" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F808" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="G808" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H808" t="s">
         <v>4</v>
@@ -28485,10 +28521,10 @@
         <v>808</v>
       </c>
       <c r="E809" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="F809" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="G809" t="n">
         <v>1</v>
@@ -28514,13 +28550,13 @@
         <v>809</v>
       </c>
       <c r="E810" t="s">
-        <v>1033</v>
+        <v>1413</v>
       </c>
       <c r="F810" t="s">
-        <v>1034</v>
+        <v>1414</v>
       </c>
       <c r="G810" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H810" t="s">
         <v>4</v>
@@ -28549,7 +28585,7 @@
         <v>1416</v>
       </c>
       <c r="G811" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H811" t="s">
         <v>4</v>
@@ -28572,13 +28608,13 @@
         <v>811</v>
       </c>
       <c r="E812" t="s">
-        <v>1211</v>
+        <v>1417</v>
       </c>
       <c r="F812" t="s">
-        <v>1212</v>
+        <v>1418</v>
       </c>
       <c r="G812" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H812" t="s">
         <v>4</v>
@@ -28601,13 +28637,13 @@
         <v>812</v>
       </c>
       <c r="E813" t="s">
-        <v>1093</v>
+        <v>1419</v>
       </c>
       <c r="F813" t="s">
-        <v>1094</v>
+        <v>1420</v>
       </c>
       <c r="G813" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H813" t="s">
         <v>4</v>
@@ -28630,13 +28666,13 @@
         <v>813</v>
       </c>
       <c r="E814" t="s">
-        <v>1221</v>
+        <v>1421</v>
       </c>
       <c r="F814" t="s">
-        <v>1222</v>
+        <v>1422</v>
       </c>
       <c r="G814" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H814" t="s">
         <v>4</v>
@@ -28659,13 +28695,13 @@
         <v>814</v>
       </c>
       <c r="E815" t="s">
-        <v>1417</v>
+        <v>1423</v>
       </c>
       <c r="F815" t="s">
-        <v>1418</v>
+        <v>1424</v>
       </c>
       <c r="G815" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H815" t="s">
         <v>4</v>
@@ -28688,10 +28724,10 @@
         <v>815</v>
       </c>
       <c r="E816" t="s">
-        <v>1419</v>
+        <v>1425</v>
       </c>
       <c r="F816" t="s">
-        <v>1420</v>
+        <v>1426</v>
       </c>
       <c r="G816" t="n">
         <v>1</v>
@@ -28717,13 +28753,13 @@
         <v>816</v>
       </c>
       <c r="E817" t="s">
-        <v>1421</v>
+        <v>1033</v>
       </c>
       <c r="F817" t="s">
-        <v>1422</v>
+        <v>1034</v>
       </c>
       <c r="G817" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H817" t="s">
         <v>4</v>
@@ -28746,13 +28782,13 @@
         <v>817</v>
       </c>
       <c r="E818" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="F818" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="G818" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H818" t="s">
         <v>4</v>
@@ -28775,10 +28811,10 @@
         <v>818</v>
       </c>
       <c r="E819" t="s">
-        <v>1425</v>
+        <v>1221</v>
       </c>
       <c r="F819" t="s">
-        <v>1426</v>
+        <v>1222</v>
       </c>
       <c r="G819" t="n">
         <v>1</v>
@@ -28804,13 +28840,13 @@
         <v>819</v>
       </c>
       <c r="E820" t="s">
-        <v>1427</v>
+        <v>1101</v>
       </c>
       <c r="F820" t="s">
-        <v>1428</v>
+        <v>1102</v>
       </c>
       <c r="G820" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H820" t="s">
         <v>4</v>
@@ -28833,10 +28869,10 @@
         <v>820</v>
       </c>
       <c r="E821" t="s">
-        <v>1429</v>
+        <v>1231</v>
       </c>
       <c r="F821" t="s">
-        <v>1430</v>
+        <v>1232</v>
       </c>
       <c r="G821" t="n">
         <v>1</v>
@@ -28862,10 +28898,10 @@
         <v>821</v>
       </c>
       <c r="E822" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="F822" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G822" t="n">
         <v>1</v>
@@ -28891,10 +28927,10 @@
         <v>822</v>
       </c>
       <c r="E823" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="F823" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="G823" t="n">
         <v>1</v>
@@ -28920,10 +28956,10 @@
         <v>823</v>
       </c>
       <c r="E824" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="F824" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="G824" t="n">
         <v>1</v>
@@ -28949,13 +28985,13 @@
         <v>824</v>
       </c>
       <c r="E825" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="F825" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="G825" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H825" t="s">
         <v>4</v>
@@ -28978,13 +29014,13 @@
         <v>825</v>
       </c>
       <c r="E826" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="F826" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="G826" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H826" t="s">
         <v>4</v>
@@ -29007,10 +29043,10 @@
         <v>826</v>
       </c>
       <c r="E827" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F827" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="G827" t="n">
         <v>1</v>
@@ -29036,10 +29072,10 @@
         <v>827</v>
       </c>
       <c r="E828" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="F828" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="G828" t="n">
         <v>1</v>
@@ -29065,13 +29101,13 @@
         <v>828</v>
       </c>
       <c r="E829" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="F829" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G829" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H829" t="s">
         <v>4</v>
@@ -29094,10 +29130,10 @@
         <v>829</v>
       </c>
       <c r="E830" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="F830" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="G830" t="n">
         <v>1</v>
@@ -29123,10 +29159,10 @@
         <v>830</v>
       </c>
       <c r="E831" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="F831" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="G831" t="n">
         <v>1</v>
@@ -29152,13 +29188,13 @@
         <v>831</v>
       </c>
       <c r="E832" t="s">
-        <v>943</v>
+        <v>1449</v>
       </c>
       <c r="F832" t="s">
-        <v>944</v>
+        <v>1450</v>
       </c>
       <c r="G832" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H832" t="s">
         <v>4</v>
@@ -29187,7 +29223,7 @@
         <v>1452</v>
       </c>
       <c r="G833" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H833" t="s">
         <v>4</v>
@@ -29274,7 +29310,7 @@
         <v>1458</v>
       </c>
       <c r="G836" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H836" t="s">
         <v>4</v>
@@ -29297,10 +29333,10 @@
         <v>836</v>
       </c>
       <c r="E837" t="s">
-        <v>1211</v>
+        <v>1459</v>
       </c>
       <c r="F837" t="s">
-        <v>1212</v>
+        <v>1460</v>
       </c>
       <c r="G837" t="n">
         <v>1</v>
@@ -29326,10 +29362,10 @@
         <v>837</v>
       </c>
       <c r="E838" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="F838" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="G838" t="n">
         <v>1</v>
@@ -29355,10 +29391,10 @@
         <v>838</v>
       </c>
       <c r="E839" t="s">
-        <v>1461</v>
+        <v>943</v>
       </c>
       <c r="F839" t="s">
-        <v>1462</v>
+        <v>944</v>
       </c>
       <c r="G839" t="n">
         <v>1</v>
@@ -29384,13 +29420,13 @@
         <v>839</v>
       </c>
       <c r="E840" t="s">
-        <v>1091</v>
+        <v>1463</v>
       </c>
       <c r="F840" t="s">
-        <v>1092</v>
+        <v>1464</v>
       </c>
       <c r="G840" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H840" t="s">
         <v>4</v>
@@ -29413,10 +29449,10 @@
         <v>840</v>
       </c>
       <c r="E841" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="F841" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="G841" t="n">
         <v>1</v>
@@ -29442,10 +29478,10 @@
         <v>841</v>
       </c>
       <c r="E842" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="F842" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="G842" t="n">
         <v>1</v>
@@ -29471,10 +29507,10 @@
         <v>842</v>
       </c>
       <c r="E843" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="F843" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="G843" t="n">
         <v>1</v>
@@ -29500,10 +29536,10 @@
         <v>843</v>
       </c>
       <c r="E844" t="s">
-        <v>1469</v>
+        <v>1221</v>
       </c>
       <c r="F844" t="s">
-        <v>1470</v>
+        <v>1222</v>
       </c>
       <c r="G844" t="n">
         <v>1</v>
@@ -29535,7 +29571,7 @@
         <v>1472</v>
       </c>
       <c r="G845" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H845" t="s">
         <v>4</v>
@@ -29587,10 +29623,10 @@
         <v>846</v>
       </c>
       <c r="E847" t="s">
-        <v>1475</v>
+        <v>1099</v>
       </c>
       <c r="F847" t="s">
-        <v>1476</v>
+        <v>1100</v>
       </c>
       <c r="G847" t="n">
         <v>1</v>
@@ -29616,10 +29652,10 @@
         <v>847</v>
       </c>
       <c r="E848" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="F848" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="G848" t="n">
         <v>1</v>
@@ -29645,13 +29681,13 @@
         <v>848</v>
       </c>
       <c r="E849" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="F849" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="G849" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H849" t="s">
         <v>4</v>
@@ -29674,10 +29710,10 @@
         <v>849</v>
       </c>
       <c r="E850" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="F850" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="G850" t="n">
         <v>1</v>
@@ -29703,13 +29739,13 @@
         <v>850</v>
       </c>
       <c r="E851" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="F851" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="G851" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H851" t="s">
         <v>4</v>
@@ -29732,13 +29768,13 @@
         <v>851</v>
       </c>
       <c r="E852" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="F852" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="G852" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H852" t="s">
         <v>4</v>
@@ -29761,10 +29797,10 @@
         <v>852</v>
       </c>
       <c r="E853" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="F853" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="G853" t="n">
         <v>1</v>
@@ -29790,10 +29826,10 @@
         <v>853</v>
       </c>
       <c r="E854" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="F854" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="G854" t="n">
         <v>1</v>
@@ -29819,10 +29855,10 @@
         <v>854</v>
       </c>
       <c r="E855" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="F855" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="G855" t="n">
         <v>1</v>
@@ -29848,13 +29884,13 @@
         <v>855</v>
       </c>
       <c r="E856" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="F856" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="G856" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H856" t="s">
         <v>4</v>
@@ -29877,10 +29913,10 @@
         <v>856</v>
       </c>
       <c r="E857" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="F857" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="G857" t="n">
         <v>1</v>
@@ -29906,13 +29942,13 @@
         <v>857</v>
       </c>
       <c r="E858" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="F858" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="G858" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H858" t="s">
         <v>4</v>
@@ -29935,10 +29971,10 @@
         <v>858</v>
       </c>
       <c r="E859" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="F859" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="G859" t="n">
         <v>1</v>
@@ -29964,10 +30000,10 @@
         <v>859</v>
       </c>
       <c r="E860" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="F860" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="G860" t="n">
         <v>1</v>
@@ -29993,10 +30029,10 @@
         <v>860</v>
       </c>
       <c r="E861" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="F861" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="G861" t="n">
         <v>1</v>
@@ -30022,10 +30058,10 @@
         <v>861</v>
       </c>
       <c r="E862" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="F862" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="G862" t="n">
         <v>1</v>
@@ -30051,13 +30087,13 @@
         <v>862</v>
       </c>
       <c r="E863" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="F863" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="G863" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H863" t="s">
         <v>4</v>
@@ -30080,10 +30116,10 @@
         <v>863</v>
       </c>
       <c r="E864" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="F864" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="G864" t="n">
         <v>1</v>
@@ -30109,13 +30145,13 @@
         <v>864</v>
       </c>
       <c r="E865" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="F865" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="G865" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H865" t="s">
         <v>4</v>
@@ -30138,13 +30174,13 @@
         <v>865</v>
       </c>
       <c r="E866" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="F866" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="G866" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H866" t="s">
         <v>4</v>
@@ -30167,13 +30203,13 @@
         <v>866</v>
       </c>
       <c r="E867" t="s">
-        <v>437</v>
+        <v>1513</v>
       </c>
       <c r="F867" t="s">
-        <v>438</v>
+        <v>1514</v>
       </c>
       <c r="G867" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H867" t="s">
         <v>4</v>
@@ -30196,13 +30232,13 @@
         <v>867</v>
       </c>
       <c r="E868" t="s">
-        <v>1479</v>
+        <v>1515</v>
       </c>
       <c r="F868" t="s">
-        <v>1480</v>
+        <v>1516</v>
       </c>
       <c r="G868" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H868" t="s">
         <v>4</v>
@@ -30225,10 +30261,10 @@
         <v>868</v>
       </c>
       <c r="E869" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="F869" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="G869" t="n">
         <v>1</v>
@@ -30254,10 +30290,10 @@
         <v>869</v>
       </c>
       <c r="E870" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="F870" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="G870" t="n">
         <v>1</v>
@@ -30283,10 +30319,10 @@
         <v>870</v>
       </c>
       <c r="E871" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="F871" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="G871" t="n">
         <v>1</v>
@@ -30312,10 +30348,10 @@
         <v>871</v>
       </c>
       <c r="E872" t="s">
-        <v>1483</v>
+        <v>1523</v>
       </c>
       <c r="F872" t="s">
-        <v>1484</v>
+        <v>1524</v>
       </c>
       <c r="G872" t="n">
         <v>1</v>
@@ -30341,13 +30377,13 @@
         <v>872</v>
       </c>
       <c r="E873" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="F873" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="G873" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H873" t="s">
         <v>4</v>
@@ -30370,13 +30406,13 @@
         <v>873</v>
       </c>
       <c r="E874" t="s">
-        <v>1523</v>
+        <v>437</v>
       </c>
       <c r="F874" t="s">
-        <v>1524</v>
+        <v>438</v>
       </c>
       <c r="G874" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H874" t="s">
         <v>4</v>
@@ -30399,13 +30435,13 @@
         <v>874</v>
       </c>
       <c r="E875" t="s">
-        <v>1525</v>
+        <v>1491</v>
       </c>
       <c r="F875" t="s">
-        <v>1526</v>
+        <v>1492</v>
       </c>
       <c r="G875" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H875" t="s">
         <v>4</v>
@@ -30515,10 +30551,10 @@
         <v>878</v>
       </c>
       <c r="E879" t="s">
-        <v>1533</v>
+        <v>1495</v>
       </c>
       <c r="F879" t="s">
-        <v>1534</v>
+        <v>1496</v>
       </c>
       <c r="G879" t="n">
         <v>1</v>
@@ -30544,10 +30580,10 @@
         <v>879</v>
       </c>
       <c r="E880" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="F880" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="G880" t="n">
         <v>1</v>
@@ -30573,10 +30609,10 @@
         <v>880</v>
       </c>
       <c r="E881" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="F881" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="G881" t="n">
         <v>1</v>
@@ -30602,13 +30638,13 @@
         <v>881</v>
       </c>
       <c r="E882" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="F882" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="G882" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H882" t="s">
         <v>4</v>
@@ -30631,10 +30667,10 @@
         <v>882</v>
       </c>
       <c r="E883" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="F883" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="G883" t="n">
         <v>1</v>
@@ -30660,10 +30696,10 @@
         <v>883</v>
       </c>
       <c r="E884" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="F884" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="G884" t="n">
         <v>1</v>
@@ -30689,10 +30725,10 @@
         <v>884</v>
       </c>
       <c r="E885" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="F885" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="G885" t="n">
         <v>1</v>
@@ -30718,10 +30754,10 @@
         <v>885</v>
       </c>
       <c r="E886" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="F886" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="G886" t="n">
         <v>1</v>
@@ -30747,10 +30783,10 @@
         <v>886</v>
       </c>
       <c r="E887" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="F887" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="G887" t="n">
         <v>1</v>
@@ -30776,10 +30812,10 @@
         <v>887</v>
       </c>
       <c r="E888" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="F888" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="G888" t="n">
         <v>1</v>
@@ -30805,13 +30841,13 @@
         <v>888</v>
       </c>
       <c r="E889" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="F889" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="G889" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H889" t="s">
         <v>4</v>
@@ -30834,18 +30870,221 @@
         <v>889</v>
       </c>
       <c r="E890" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F890" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G890" t="n">
+        <v>1</v>
+      </c>
+      <c r="H890" t="s">
+        <v>4</v>
+      </c>
+      <c r="I890" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="891" spans="1:9">
+      <c r="A891" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B891" t="s">
+        <v>0</v>
+      </c>
+      <c r="C891" t="s">
+        <v>1</v>
+      </c>
+      <c r="D891" t="n">
+        <v>890</v>
+      </c>
+      <c r="E891" t="s">
         <v>1555</v>
       </c>
-      <c r="F890" t="s">
+      <c r="F891" t="s">
         <v>1556</v>
       </c>
-      <c r="G890" t="n">
-        <v>1</v>
-      </c>
-      <c r="H890" t="s">
-        <v>4</v>
-      </c>
-      <c r="I890" t="n">
+      <c r="G891" t="n">
+        <v>1</v>
+      </c>
+      <c r="H891" t="s">
+        <v>4</v>
+      </c>
+      <c r="I891" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="892" spans="1:9">
+      <c r="A892" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B892" t="s">
+        <v>0</v>
+      </c>
+      <c r="C892" t="s">
+        <v>1</v>
+      </c>
+      <c r="D892" t="n">
+        <v>891</v>
+      </c>
+      <c r="E892" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F892" t="s">
+        <v>1558</v>
+      </c>
+      <c r="G892" t="n">
+        <v>1</v>
+      </c>
+      <c r="H892" t="s">
+        <v>4</v>
+      </c>
+      <c r="I892" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="893" spans="1:9">
+      <c r="A893" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B893" t="s">
+        <v>0</v>
+      </c>
+      <c r="C893" t="s">
+        <v>1</v>
+      </c>
+      <c r="D893" t="n">
+        <v>892</v>
+      </c>
+      <c r="E893" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F893" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G893" t="n">
+        <v>1</v>
+      </c>
+      <c r="H893" t="s">
+        <v>4</v>
+      </c>
+      <c r="I893" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="894" spans="1:9">
+      <c r="A894" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="B894" t="s">
+        <v>0</v>
+      </c>
+      <c r="C894" t="s">
+        <v>1</v>
+      </c>
+      <c r="D894" t="n">
+        <v>893</v>
+      </c>
+      <c r="E894" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F894" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G894" t="n">
+        <v>1</v>
+      </c>
+      <c r="H894" t="s">
+        <v>4</v>
+      </c>
+      <c r="I894" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="895" spans="1:9">
+      <c r="A895" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="B895" t="s">
+        <v>0</v>
+      </c>
+      <c r="C895" t="s">
+        <v>1</v>
+      </c>
+      <c r="D895" t="n">
+        <v>894</v>
+      </c>
+      <c r="E895" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F895" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G895" t="n">
+        <v>1</v>
+      </c>
+      <c r="H895" t="s">
+        <v>4</v>
+      </c>
+      <c r="I895" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="896" spans="1:9">
+      <c r="A896" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="B896" t="s">
+        <v>0</v>
+      </c>
+      <c r="C896" t="s">
+        <v>1</v>
+      </c>
+      <c r="D896" t="n">
+        <v>895</v>
+      </c>
+      <c r="E896" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F896" t="s">
+        <v>1566</v>
+      </c>
+      <c r="G896" t="n">
+        <v>1</v>
+      </c>
+      <c r="H896" t="s">
+        <v>4</v>
+      </c>
+      <c r="I896" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="897" spans="1:9">
+      <c r="A897" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="B897" t="s">
+        <v>0</v>
+      </c>
+      <c r="C897" t="s">
+        <v>1</v>
+      </c>
+      <c r="D897" t="n">
+        <v>896</v>
+      </c>
+      <c r="E897" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F897" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G897" t="n">
+        <v>1</v>
+      </c>
+      <c r="H897" t="s">
+        <v>4</v>
+      </c>
+      <c r="I897" t="n">
         <v>3</v>
       </c>
     </row>
